--- a/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Java_Star\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -287,10 +282,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>修复安全漏洞“www.mgzf.com消息读取处存在逻辑漏洞可在未登录情况下修改其他用户的消息状态”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>修复安全漏洞“蘑菇租房APP在查询心愿单功能存在水平越权查看关于其他userId的心愿单。”</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -302,12 +293,16 @@
     <t>修复官网找房列表，品牌房源推荐，显示字符串的问题</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>修复安全漏洞“www.mgzf.com消息读取处存在逻辑漏洞可在未登录情况下修改其他用户的消息状态”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1181,17 +1176,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -1217,7 +1212,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1324,13 +1319,15 @@
       <c r="O2" s="12"/>
       <c r="P2" s="58"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="28"/>
+      <c r="R2" s="28">
+        <v>6553</v>
+      </c>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="23.25" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1377,7 +1374,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="33">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>68</v>
@@ -1419,12 +1416,14 @@
       <c r="O4" s="7"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7">
+        <v>6554</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="20.25" customHeight="1">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1471,7 +1470,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" s="52" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="52" customFormat="1" ht="40.5" customHeight="1">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>68</v>
@@ -1513,7 +1512,9 @@
       <c r="O6" s="7"/>
       <c r="P6" s="58"/>
       <c r="Q6" s="59"/>
-      <c r="R6" s="49"/>
+      <c r="R6" s="7">
+        <v>6555</v>
+      </c>
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
       <c r="U6" s="50" t="s">
@@ -1521,7 +1522,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="21.75" customHeight="1">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1568,7 +1569,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>68</v>
@@ -1617,7 +1618,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" s="61" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="61" customFormat="1" ht="33">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>68</v>
@@ -1667,7 +1668,7 @@
       <c r="U9" s="59"/>
       <c r="V9" s="60"/>
     </row>
-    <row r="10" spans="1:22" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="61" customFormat="1" ht="16.5">
       <c r="A10" s="16"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -1691,7 +1692,7 @@
       <c r="U10" s="59"/>
       <c r="V10" s="60"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -1714,7 +1715,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -1737,7 +1738,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1760,7 +1761,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1783,7 +1784,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1806,7 +1807,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1829,7 +1830,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1852,7 +1853,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1875,7 +1876,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1898,7 +1899,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1921,7 +1922,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1944,7 +1945,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1967,7 +1968,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1990,7 +1991,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2013,7 +2014,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2036,7 +2037,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2059,7 +2060,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2082,7 +2083,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2105,7 +2106,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2128,7 +2129,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2151,7 +2152,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2174,7 +2175,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2197,7 +2198,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2220,7 +2221,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2243,7 +2244,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2266,7 +2267,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2289,7 +2290,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2312,7 +2313,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2335,7 +2336,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2358,7 +2359,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2381,7 +2382,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2404,7 +2405,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2427,7 +2428,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2450,7 +2451,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2473,7 +2474,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2496,7 +2497,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2519,7 +2520,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2542,7 +2543,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2565,7 +2566,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2588,7 +2589,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2611,7 +2612,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2634,7 +2635,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2657,7 +2658,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2680,7 +2681,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2703,7 +2704,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2726,7 +2727,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2749,7 +2750,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2772,7 +2773,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2795,7 +2796,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2818,7 +2819,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2841,7 +2842,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2864,7 +2865,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2887,7 +2888,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2910,7 +2911,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2933,7 +2934,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2956,7 +2957,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2979,7 +2980,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3002,7 +3003,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3025,7 +3026,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3048,7 +3049,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3071,7 +3072,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3094,7 +3095,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3117,7 +3118,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3140,7 +3141,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3163,7 +3164,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3186,7 +3187,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3209,7 +3210,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3232,7 +3233,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3255,7 +3256,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3278,7 +3279,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3301,7 +3302,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3324,7 +3325,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3347,7 +3348,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3370,7 +3371,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3393,7 +3394,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3416,7 +3417,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3439,7 +3440,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3462,7 +3463,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3485,7 +3486,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3508,7 +3509,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3531,7 +3532,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3554,7 +3555,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3577,7 +3578,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3600,7 +3601,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3623,7 +3624,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3646,7 +3647,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3669,7 +3670,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3692,7 +3693,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3715,7 +3716,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3738,7 +3739,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3761,7 +3762,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3784,7 +3785,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3804,7 +3805,7 @@
       <c r="Q102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3824,7 +3825,7 @@
       <c r="Q103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3844,7 +3845,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3864,7 +3865,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3884,7 +3885,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3904,7 +3905,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3924,7 +3925,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3944,7 +3945,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3964,7 +3965,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3984,7 +3985,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4004,7 +4005,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4024,7 +4025,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4044,7 +4045,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4064,7 +4065,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4084,7 +4085,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4104,7 +4105,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4124,7 +4125,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4144,7 +4145,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4164,7 +4165,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4184,7 +4185,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4204,7 +4205,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4224,7 +4225,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4244,7 +4245,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4264,7 +4265,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4284,7 +4285,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4304,7 +4305,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4324,7 +4325,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4344,7 +4345,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4364,7 +4365,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4384,7 +4385,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4404,7 +4405,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4424,7 +4425,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4444,7 +4445,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4464,7 +4465,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4484,131 +4485,131 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:3">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:3">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:3">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:3">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:3">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:3">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:3">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:3">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:3">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:3">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:3">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:3">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
@@ -4620,21 +4621,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="65" t="s">
         <v>27</v>
       </c>
@@ -4647,7 +4648,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -4658,7 +4659,7 @@
       <c r="H2" s="67"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4698,7 +4699,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4709,7 +4710,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4720,7 +4721,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4731,7 +4732,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4742,7 +4743,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4753,7 +4754,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4764,7 +4765,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4775,7 +4776,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4786,7 +4787,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4797,7 +4798,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4826,14 +4827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4844,7 +4845,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4880,7 +4881,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4890,7 +4891,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4900,7 +4901,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4910,7 +4911,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4920,7 +4921,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4930,7 +4931,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4940,7 +4941,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4950,7 +4951,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4960,7 +4961,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4970,7 +4971,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4980,7 +4981,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4990,7 +4991,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5000,7 +5001,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5010,7 +5011,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5020,7 +5021,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5030,7 +5031,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5040,7 +5041,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5062,14 +5063,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="45" customWidth="1"/>
@@ -5905,7 +5906,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="65" t="s">
         <v>47</v>
       </c>
@@ -5922,7 +5923,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5937,7 +5938,7 @@
       <c r="L2" s="67"/>
       <c r="M2" s="68"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5993,7 +5994,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="39"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -6008,7 +6009,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="39"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6023,7 +6024,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -6038,7 +6039,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -6071,14 +6072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="45" customWidth="1"/>
@@ -6914,7 +6915,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="65" t="s">
         <v>47</v>
       </c>
@@ -6931,7 +6932,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -6946,7 +6947,7 @@
       <c r="L2" s="67"/>
       <c r="M2" s="68"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -7002,7 +7003,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="39"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -7017,7 +7018,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="39"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -7032,7 +7033,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -7066,14 +7067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="45" customWidth="1"/>
@@ -7909,7 +7910,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="65" t="s">
         <v>47</v>
       </c>
@@ -7926,7 +7927,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -7941,7 +7942,7 @@
       <c r="L2" s="67"/>
       <c r="M2" s="68"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -7997,7 +7998,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="39"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -8012,7 +8013,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="39"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -8027,7 +8028,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -8042,7 +8043,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>

--- a/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2_EQ组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -295,6 +295,34 @@
   </si>
   <si>
     <t>修复安全漏洞“www.mgzf.com消息读取处存在逻辑漏洞可在未登录情况下修改其他用户的消息状态”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊岐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊岐/吴永余</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1180,10 +1208,10 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1315,10 +1343,18 @@
       <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="12"/>
+      <c r="N2" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="11">
+        <v>42719</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="R2" s="28">
         <v>6553</v>
       </c>
@@ -1365,10 +1401,18 @@
       <c r="M3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="12"/>
+      <c r="N3" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="11">
+        <v>42719</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -1412,10 +1456,18 @@
       <c r="M4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="12"/>
+      <c r="N4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="11">
+        <v>42719</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="R4" s="7">
         <v>6554</v>
       </c>
@@ -1461,10 +1513,18 @@
       <c r="M5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
+      <c r="N5" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="11">
+        <v>42719</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1508,10 +1568,18 @@
       <c r="M6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
+      <c r="N6" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="11">
+        <v>42719</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="R6" s="7">
         <v>6555</v>
       </c>
@@ -1560,10 +1628,18 @@
       <c r="M7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
+      <c r="N7" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="11">
+        <v>42719</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1607,10 +1683,18 @@
       <c r="M8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="59"/>
+      <c r="N8" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="11">
+        <v>42719</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="R8" s="7">
         <v>6499</v>
       </c>
@@ -1656,10 +1740,18 @@
       <c r="M9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
+      <c r="N9" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="11">
+        <v>42719</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="R9" s="57">
         <v>6407</v>
       </c>

--- a/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2_EQ组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.7.2 20161215\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -17,7 +22,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -329,8 +334,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1204,17 +1209,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -1240,7 +1245,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="28.5" customHeight="1">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1363,7 +1368,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="23.25" customHeight="1">
+    <row r="3" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1418,7 +1423,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="33">
+    <row r="4" spans="1:22" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1475,7 +1480,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="20.25" customHeight="1">
+    <row r="5" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1530,7 +1535,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" s="52" customFormat="1" ht="40.5" customHeight="1">
+    <row r="6" spans="1:22" s="52" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1590,7 +1595,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="21.75" customHeight="1">
+    <row r="7" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1645,7 +1650,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1702,7 +1707,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" s="61" customFormat="1" ht="33">
+    <row r="9" spans="1:22" s="61" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1760,7 +1765,7 @@
       <c r="U9" s="59"/>
       <c r="V9" s="60"/>
     </row>
-    <row r="10" spans="1:22" s="61" customFormat="1" ht="16.5">
+    <row r="10" spans="1:22" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -1784,7 +1789,7 @@
       <c r="U10" s="59"/>
       <c r="V10" s="60"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -1807,7 +1812,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -1830,7 +1835,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1853,7 +1858,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1876,7 +1881,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1899,7 +1904,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1922,7 +1927,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1945,7 +1950,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1968,7 +1973,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1991,7 +1996,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2014,7 +2019,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2037,7 +2042,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2060,7 +2065,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2083,7 +2088,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2106,7 +2111,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2129,7 +2134,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2152,7 +2157,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2175,7 +2180,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2198,7 +2203,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2221,7 +2226,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2244,7 +2249,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2267,7 +2272,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2290,7 +2295,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2313,7 +2318,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2336,7 +2341,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2359,7 +2364,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2382,7 +2387,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2405,7 +2410,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2428,7 +2433,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2451,7 +2456,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2474,7 +2479,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2497,7 +2502,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2520,7 +2525,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2543,7 +2548,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2566,7 +2571,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2589,7 +2594,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2612,7 +2617,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2635,7 +2640,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2658,7 +2663,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2681,7 +2686,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2704,7 +2709,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2727,7 +2732,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2750,7 +2755,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2773,7 +2778,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2796,7 +2801,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2819,7 +2824,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2842,7 +2847,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2865,7 +2870,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2888,7 +2893,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2911,7 +2916,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2934,7 +2939,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2957,7 +2962,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2980,7 +2985,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3003,7 +3008,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3026,7 +3031,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3049,7 +3054,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3072,7 +3077,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3095,7 +3100,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3118,7 +3123,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3141,7 +3146,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3164,7 +3169,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3187,7 +3192,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3210,7 +3215,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3233,7 +3238,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3256,7 +3261,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3279,7 +3284,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3302,7 +3307,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3325,7 +3330,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3348,7 +3353,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3371,7 +3376,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3394,7 +3399,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3417,7 +3422,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3440,7 +3445,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3463,7 +3468,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3486,7 +3491,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3509,7 +3514,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5">
+    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3532,7 +3537,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5">
+    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3555,7 +3560,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5">
+    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3578,7 +3583,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5">
+    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3601,7 +3606,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5">
+    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3624,7 +3629,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5">
+    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3647,7 +3652,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5">
+    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3670,7 +3675,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5">
+    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3693,7 +3698,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5">
+    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3716,7 +3721,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5">
+    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3739,7 +3744,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5">
+    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3762,7 +3767,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5">
+    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3785,7 +3790,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5">
+    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3808,7 +3813,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5">
+    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3831,7 +3836,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5">
+    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3854,7 +3859,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5">
+    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3877,7 +3882,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5">
+    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3897,7 +3902,7 @@
       <c r="Q102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5">
+    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3917,7 +3922,7 @@
       <c r="Q103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5">
+    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3937,7 +3942,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5">
+    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3957,7 +3962,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5">
+    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3977,7 +3982,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5">
+    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3997,7 +4002,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5">
+    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4017,7 +4022,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5">
+    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4037,7 +4042,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5">
+    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4057,7 +4062,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5">
+    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4077,7 +4082,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5">
+    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4097,7 +4102,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5">
+    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4117,7 +4122,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5">
+    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4137,7 +4142,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5">
+    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4157,7 +4162,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5">
+    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4177,7 +4182,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5">
+    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4197,7 +4202,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5">
+    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4217,7 +4222,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5">
+    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4237,7 +4242,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5">
+    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4257,7 +4262,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5">
+    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4277,7 +4282,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5">
+    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4297,7 +4302,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5">
+    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4317,7 +4322,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5">
+    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4337,7 +4342,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5">
+    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4357,7 +4362,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5">
+    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4377,7 +4382,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5">
+    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4397,7 +4402,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5">
+    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4417,7 +4422,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5">
+    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4437,7 +4442,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5">
+    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4457,7 +4462,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5">
+    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4477,7 +4482,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5">
+    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4497,7 +4502,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5">
+    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4517,7 +4522,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4537,7 +4542,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4557,7 +4562,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4577,131 +4582,131 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
@@ -4713,21 +4718,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>27</v>
       </c>
@@ -4740,7 +4745,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -4751,7 +4756,7 @@
       <c r="H2" s="67"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4780,7 +4785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4791,7 +4796,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4802,7 +4807,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4813,7 +4818,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4824,7 +4829,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4835,7 +4840,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4846,7 +4851,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4857,7 +4862,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4868,7 +4873,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4879,7 +4884,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4890,7 +4895,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4919,14 +4924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4937,7 +4942,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4963,7 +4968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4973,7 +4978,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4983,7 +4988,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4993,7 +4998,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5003,7 +5008,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5013,7 +5018,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5023,7 +5028,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5033,7 +5038,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5043,7 +5048,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5053,7 +5058,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5063,7 +5068,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5073,7 +5078,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5083,7 +5088,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5093,7 +5098,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5103,7 +5108,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5113,7 +5118,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5123,7 +5128,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5133,7 +5138,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5155,14 +5160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="45" customWidth="1"/>
@@ -5998,7 +6003,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>47</v>
       </c>
@@ -6015,7 +6020,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -6030,7 +6035,7 @@
       <c r="L2" s="67"/>
       <c r="M2" s="68"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -6071,7 +6076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6086,7 +6091,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -6101,7 +6106,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="39"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6116,7 +6121,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -6131,7 +6136,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -6164,14 +6169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="45" customWidth="1"/>
@@ -7007,7 +7012,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>47</v>
       </c>
@@ -7024,7 +7029,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -7039,7 +7044,7 @@
       <c r="L2" s="67"/>
       <c r="M2" s="68"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7080,7 +7085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -7095,7 +7100,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -7110,7 +7115,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="39"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -7125,7 +7130,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -7159,14 +7164,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="45" customWidth="1"/>
@@ -8002,7 +8007,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>47</v>
       </c>
@@ -8019,7 +8024,7 @@
       <c r="L1" s="65"/>
       <c r="M1" s="66"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -8034,7 +8039,7 @@
       <c r="L2" s="67"/>
       <c r="M2" s="68"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -8075,7 +8080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -8090,7 +8095,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -8105,7 +8110,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="39"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -8120,7 +8125,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -8135,7 +8140,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
